--- a/반은숙/스펙트럼 에이아이 재고.xlsx
+++ b/반은숙/스펙트럼 에이아이 재고.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>ITEM</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -391,6 +391,10 @@
   </si>
   <si>
     <t>FSMD110-16-1206R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SY6280AAC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,8 +1005,8 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
@@ -2154,8 +2158,15 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
+      <c r="A54" s="17">
+        <v>53</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="31">
+        <v>65</v>
+      </c>
       <c r="H54" s="32"/>
       <c r="I54" s="33"/>
       <c r="J54" s="16"/>
